--- a/Excel/Práctica/6. Gráficos en Excel/Creación de gráficos y mini-gráficos en Excel.xlsx
+++ b/Excel/Práctica/6. Gráficos en Excel/Creación de gráficos y mini-gráficos en Excel.xlsx
@@ -7286,7 +7286,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>

--- a/Excel/Práctica/6. Gráficos en Excel/Creación de gráficos y mini-gráficos en Excel.xlsx
+++ b/Excel/Práctica/6. Gráficos en Excel/Creación de gráficos y mini-gráficos en Excel.xlsx
@@ -790,7 +790,13 @@
     <xf numFmtId="44" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,17 +805,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -860,7 +860,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1174,11 +1173,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2072253840"/>
-        <c:axId val="-2072349616"/>
+        <c:axId val="-2102889920"/>
+        <c:axId val="-2102886192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2072253840"/>
+        <c:axId val="-2102889920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1220,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072349616"/>
+        <c:crossAx val="-2102886192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1229,7 +1228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072349616"/>
+        <c:axId val="-2102886192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1279,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072253840"/>
+        <c:crossAx val="-2102889920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,7 +1293,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1507,11 +1505,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2099750704"/>
-        <c:axId val="-2099756928"/>
+        <c:axId val="-2103866208"/>
+        <c:axId val="-2103862544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2099750704"/>
+        <c:axId val="-2103866208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1552,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099756928"/>
+        <c:crossAx val="-2103862544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1562,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099756928"/>
+        <c:axId val="-2103862544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1611,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099750704"/>
+        <c:crossAx val="-2103866208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,11 +1806,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2120241280"/>
-        <c:axId val="2117980816"/>
+        <c:axId val="-2102819632"/>
+        <c:axId val="-2102815968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120241280"/>
+        <c:axId val="-2102819632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +1853,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117980816"/>
+        <c:crossAx val="-2102815968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1863,7 +1861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117980816"/>
+        <c:axId val="-2102815968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,7 +1912,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120241280"/>
+        <c:crossAx val="-2102819632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2403,11 +2401,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-2105820608"/>
-        <c:axId val="-2101721120"/>
+        <c:axId val="-2102086016"/>
+        <c:axId val="-2102082288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2105820608"/>
+        <c:axId val="-2102086016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2447,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101721120"/>
+        <c:crossAx val="-2102082288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101721120"/>
+        <c:axId val="-2102082288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +2505,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105820608"/>
+        <c:crossAx val="-2102086016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2646,9 +2644,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2665,15 +2662,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Reporte Mensual Primer Año'!$B$3:$G$3</c:f>
@@ -2727,6 +2726,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2736,13 +2736,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2070854576"/>
-        <c:axId val="-2070851648"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="-2131730800"/>
+        <c:axId val="-2131734480"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-2070854576"/>
+        <c:axId val="-2131730800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,7 +2784,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070851648"/>
+        <c:crossAx val="-2131734480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2793,7 +2792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070851648"/>
+        <c:axId val="-2131734480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,7 +2843,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070854576"/>
+        <c:crossAx val="-2131730800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2941,9 +2940,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2960,15 +2958,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Reporte Mensual Primer Año'!$B$3:$G$3</c:f>
@@ -3022,6 +3022,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3031,13 +3032,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2085511936"/>
-        <c:axId val="-2085483968"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="-2101128656"/>
+        <c:axId val="-2101124992"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-2085511936"/>
+        <c:axId val="-2101128656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3080,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085483968"/>
+        <c:crossAx val="-2101124992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3088,7 +3088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085483968"/>
+        <c:axId val="-2101124992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3139,7 +3139,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085511936"/>
+        <c:crossAx val="-2101128656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6482,7 +6482,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47A410DA-A33D-4A07-9A21-62747AA3CF8F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A410DA-A33D-4A07-9A21-62747AA3CF8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6515,7 +6515,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD43E180-1B68-432D-AA0E-AA69D4E43879}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD43E180-1B68-432D-AA0E-AA69D4E43879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6548,7 +6548,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A34D487-923E-4EDE-81B7-48300A01A3EF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34D487-923E-4EDE-81B7-48300A01A3EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6979,15 +6979,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
@@ -7027,7 +7027,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -7036,7 +7036,7 @@
       <c r="C6" s="6">
         <v>1000</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -7047,14 +7047,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>250</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
@@ -7063,7 +7063,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -7072,7 +7072,7 @@
       <c r="C8" s="8">
         <v>1000</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="20" t="s">
         <v>14</v>
       </c>
@@ -7081,14 +7081,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="7">
         <v>500</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -7099,7 +7099,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -7108,7 +7108,7 @@
       <c r="C10" s="8">
         <v>1000</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="20" t="s">
         <v>13</v>
       </c>
@@ -7117,14 +7117,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="7">
         <v>500</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="20" t="s">
@@ -7135,7 +7135,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -7144,7 +7144,7 @@
       <c r="C12" s="8">
         <v>1000</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -7153,14 +7153,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="7">
         <v>500</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="20" t="s">
         <v>14</v>
       </c>
@@ -7169,7 +7169,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -7178,7 +7178,7 @@
       <c r="C14" s="8">
         <v>1000</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="21" t="s">
@@ -7189,14 +7189,14 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7">
         <v>700</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="20" t="s">
         <v>13</v>
       </c>
@@ -7205,7 +7205,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -7214,7 +7214,7 @@
       <c r="C16" s="8">
         <v>1000</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="21" t="s">
@@ -7225,14 +7225,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="7">
         <v>700</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="20" t="s">
         <v>13</v>
       </c>
@@ -7241,7 +7241,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="33" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="21" t="s">
@@ -7252,7 +7252,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="28"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="20" t="s">
         <v>13</v>
       </c>
@@ -7262,12 +7262,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -7275,6 +7269,12 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7286,22 +7286,22 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7334,17 +7334,17 @@
       <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -7378,15 +7378,15 @@
         <f>SUM(B4:G4)</f>
         <v>9150</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -7420,15 +7420,15 @@
         <f>SUM(B5:G5)</f>
         <v>3020</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
@@ -7462,26 +7462,26 @@
         <f>SUM(B6:G6)</f>
         <v>6130</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:18" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
@@ -7493,15 +7493,15 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="35"/>
@@ -7511,127 +7511,127 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
     </row>
     <row r="20" spans="10:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
     </row>
     <row r="21" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
     </row>
     <row r="22" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
     </row>
     <row r="23" spans="10:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
     </row>
     <row r="24" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
     </row>
     <row r="25" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
     </row>
     <row r="26" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
     </row>
     <row r="27" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7660,15 +7660,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7729,7 +7729,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -7739,7 +7739,7 @@
         <v>1200</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -7750,7 +7750,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="31"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="21" t="s">
         <v>20</v>
       </c>
@@ -7767,7 +7767,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -7777,7 +7777,7 @@
         <v>1200</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="20" t="s">
         <v>14</v>
       </c>
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="21" t="s">
         <v>22</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>300</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -7806,7 +7806,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
-      <c r="E10" s="28"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="20" t="s">
         <v>13</v>
       </c>
@@ -7837,16 +7837,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7991,16 +7991,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>

--- a/Excel/Práctica/6. Gráficos en Excel/Creación de gráficos y mini-gráficos en Excel.xlsx
+++ b/Excel/Práctica/6. Gráficos en Excel/Creación de gráficos y mini-gráficos en Excel.xlsx
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>Mes</t>
   </si>
@@ -469,6 +469,90 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> así:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Al igual también puede hacer uso de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mini-gráficos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en Excel, esto al representar un rango especifico de valores de su interés (la evolución numérica de ellos) en una sola celda. Lo dicho: los mini-gráficos son representados en una sola celda, por lo que debe posicionarse en una celda vacia, también de su interés, donde desee visualizar dicho mini-gráfico. Estando en la celda vacía, vayase a la barra de opciones generales de Excel y haga click en la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insertar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ahí se va a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minigráficos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y, entonces, determina con qué tipo de gráficos podría representar mejor los datos de su análisis en esa única celda. Probemos estos minigráficos con los registros que hay, por separado, de los ingresos y los egresos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Al igual, puede manipular de cualquier forma deseada su minigráfico al hacer click sobre él e irse nuevamente hacía la barra de opciones generales de Excel para visualizar una nueva pestaña generada que lleva por nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diseño de minigráfico.</t>
     </r>
   </si>
 </sst>
@@ -793,10 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,8 +886,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1173,11 +1257,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2102889920"/>
-        <c:axId val="-2102886192"/>
+        <c:axId val="-2097241568"/>
+        <c:axId val="-2097497200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102889920"/>
+        <c:axId val="-2097241568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1304,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102886192"/>
+        <c:crossAx val="-2097497200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1228,7 +1312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102886192"/>
+        <c:axId val="-2097497200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1363,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102889920"/>
+        <c:crossAx val="-2097241568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,11 +1589,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2103866208"/>
-        <c:axId val="-2103862544"/>
+        <c:axId val="-2069226112"/>
+        <c:axId val="-2069222720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2103866208"/>
+        <c:axId val="-2069226112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1636,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103862544"/>
+        <c:crossAx val="-2069222720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103862544"/>
+        <c:axId val="-2069222720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1695,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103866208"/>
+        <c:crossAx val="-2069226112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,11 +1890,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2102819632"/>
-        <c:axId val="-2102815968"/>
+        <c:axId val="-2061242080"/>
+        <c:axId val="-2096982464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102819632"/>
+        <c:axId val="-2061242080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1937,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102815968"/>
+        <c:crossAx val="-2096982464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1861,7 +1945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102815968"/>
+        <c:axId val="-2096982464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +1996,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102819632"/>
+        <c:crossAx val="-2061242080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2401,11 +2485,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-2102086016"/>
-        <c:axId val="-2102082288"/>
+        <c:axId val="-2061243840"/>
+        <c:axId val="-2061136112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102086016"/>
+        <c:axId val="-2061243840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +2531,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102082288"/>
+        <c:crossAx val="-2061136112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2455,7 +2539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102082288"/>
+        <c:axId val="-2061136112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,7 +2589,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102086016"/>
+        <c:crossAx val="-2061243840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2737,11 +2821,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2131730800"/>
-        <c:axId val="-2131734480"/>
+        <c:axId val="-2130794368"/>
+        <c:axId val="-2130827696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131730800"/>
+        <c:axId val="-2130794368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2784,7 +2868,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131734480"/>
+        <c:crossAx val="-2130827696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2792,7 +2876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131734480"/>
+        <c:axId val="-2130827696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,7 +2927,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131730800"/>
+        <c:crossAx val="-2130794368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3033,11 +3117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2101128656"/>
-        <c:axId val="-2101124992"/>
+        <c:axId val="-2061099744"/>
+        <c:axId val="-2096709536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101128656"/>
+        <c:axId val="-2061099744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3164,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101124992"/>
+        <c:crossAx val="-2096709536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3088,7 +3172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101124992"/>
+        <c:axId val="-2096709536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3139,7 +3223,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101128656"/>
+        <c:crossAx val="-2061099744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6482,7 +6566,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A410DA-A33D-4A07-9A21-62747AA3CF8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47A410DA-A33D-4A07-9A21-62747AA3CF8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6515,7 +6599,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD43E180-1B68-432D-AA0E-AA69D4E43879}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD43E180-1B68-432D-AA0E-AA69D4E43879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6548,7 +6632,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34D487-923E-4EDE-81B7-48300A01A3EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A34D487-923E-4EDE-81B7-48300A01A3EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6979,15 +7063,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
@@ -7027,7 +7111,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -7036,7 +7120,7 @@
       <c r="C6" s="6">
         <v>1000</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -7047,14 +7131,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>250</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
@@ -7063,7 +7147,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -7072,7 +7156,7 @@
       <c r="C8" s="8">
         <v>1000</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="20" t="s">
         <v>14</v>
       </c>
@@ -7081,14 +7165,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="7">
         <v>500</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -7099,7 +7183,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -7108,7 +7192,7 @@
       <c r="C10" s="8">
         <v>1000</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="20" t="s">
         <v>13</v>
       </c>
@@ -7117,14 +7201,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="7">
         <v>500</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="32" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="20" t="s">
@@ -7135,7 +7219,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -7144,7 +7228,7 @@
       <c r="C12" s="8">
         <v>1000</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -7153,14 +7237,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="7">
         <v>500</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="20" t="s">
         <v>14</v>
       </c>
@@ -7169,7 +7253,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -7178,7 +7262,7 @@
       <c r="C14" s="8">
         <v>1000</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="29" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="21" t="s">
@@ -7189,14 +7273,14 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7">
         <v>700</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="20" t="s">
         <v>13</v>
       </c>
@@ -7205,7 +7289,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -7214,7 +7298,7 @@
       <c r="C16" s="8">
         <v>1000</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="21" t="s">
@@ -7225,14 +7309,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="7">
         <v>700</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="20" t="s">
         <v>13</v>
       </c>
@@ -7241,7 +7325,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="29" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="21" t="s">
@@ -7252,7 +7336,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="33"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="20" t="s">
         <v>13</v>
       </c>
@@ -7262,6 +7346,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -7269,12 +7359,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7286,22 +7370,22 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7543,7 +7627,81 @@
       <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
     </row>
-    <row r="20" spans="10:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="34" t="s">
         <v>41</v>
       </c>
@@ -7556,7 +7714,10 @@
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
     </row>
-    <row r="21" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
@@ -7567,7 +7728,10 @@
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
     </row>
-    <row r="22" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
@@ -7578,7 +7742,7 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
     </row>
-    <row r="23" spans="10:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
@@ -7589,7 +7753,16 @@
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
     </row>
-    <row r="24" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
@@ -7600,7 +7773,14 @@
       <c r="Q24" s="28"/>
       <c r="R24" s="28"/>
     </row>
-    <row r="25" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
@@ -7611,7 +7791,14 @@
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
@@ -7622,7 +7809,7 @@
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
     </row>
-    <row r="27" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
@@ -7634,14 +7821,54 @@
       <c r="R27" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B24:H26"/>
     <mergeCell ref="J20:R23"/>
     <mergeCell ref="B8:H9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J3:R9"/>
+    <mergeCell ref="B12:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Reporte Mensual Primer Año'!B5:G5</xm:f>
+              <xm:sqref>B22</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Reporte Mensual Primer Año'!B4:G4</xm:f>
+              <xm:sqref>B21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7660,15 +7887,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7729,7 +7956,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -7739,7 +7966,7 @@
         <v>1200</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -7750,7 +7977,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
@@ -7758,7 +7985,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="30"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="21" t="s">
         <v>20</v>
       </c>
@@ -7767,7 +7994,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -7777,7 +8004,7 @@
         <v>1200</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="30"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="20" t="s">
         <v>14</v>
       </c>
@@ -7786,7 +8013,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>22</v>
       </c>
@@ -7794,7 +8021,7 @@
         <v>300</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -7806,7 +8033,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="20" t="s">
         <v>13</v>
       </c>
@@ -7837,16 +8064,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7991,16 +8218,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>

--- a/Excel/Práctica/6. Gráficos en Excel/Creación de gráficos y mini-gráficos en Excel.xlsx
+++ b/Excel/Práctica/6. Gráficos en Excel/Creación de gráficos y mini-gráficos en Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="888" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="888" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Primer Año" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
   <si>
     <t>Mes</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>Abril</t>
-  </si>
-  <si>
-    <t>etc…</t>
   </si>
   <si>
     <t>Mayo</t>
@@ -554,6 +551,12 @@
       </rPr>
       <t>Diseño de minigráfico.</t>
     </r>
+  </si>
+  <si>
+    <t>Negocios</t>
+  </si>
+  <si>
+    <t>Tenga en cuenta que, generalmente, dentro de los datos seleccionados, para visualizar el mini-gráfico, no se toman valores alfabeticos; no tiene sentido porque en el mini-gráfico no se va a poder visualizar ninguna referencia textual dentro de él (con relación al gráfico en sí), entonces seleccione solo los valores numéricos de su interés, los que desea analizar, a la hora de tomar los datos con los que va a visualizar dicho gráfico.</t>
   </si>
 </sst>
 </file>
@@ -877,7 +880,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,11 +892,8 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -944,6 +947,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1257,11 +1261,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2097241568"/>
-        <c:axId val="-2097497200"/>
+        <c:axId val="2094223152"/>
+        <c:axId val="2124512464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2097241568"/>
+        <c:axId val="2094223152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1308,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097497200"/>
+        <c:crossAx val="2124512464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1312,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097497200"/>
+        <c:axId val="2124512464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1367,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097241568"/>
+        <c:crossAx val="2094223152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1377,6 +1381,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1460,6 +1465,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1589,11 +1595,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2069226112"/>
-        <c:axId val="-2069222720"/>
+        <c:axId val="-2109229072"/>
+        <c:axId val="-2109225408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069226112"/>
+        <c:axId val="-2109229072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1642,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069222720"/>
+        <c:crossAx val="-2109225408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1644,7 +1650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069222720"/>
+        <c:axId val="-2109225408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +1701,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069226112"/>
+        <c:crossAx val="-2109229072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1761,6 +1767,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1890,11 +1897,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2061242080"/>
-        <c:axId val="-2096982464"/>
+        <c:axId val="-2109184656"/>
+        <c:axId val="-2109180992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2061242080"/>
+        <c:axId val="-2109184656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +1944,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096982464"/>
+        <c:crossAx val="-2109180992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1945,7 +1952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096982464"/>
+        <c:axId val="-2109180992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +2003,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061242080"/>
+        <c:crossAx val="-2109184656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2485,11 +2492,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-2061243840"/>
-        <c:axId val="-2061136112"/>
+        <c:axId val="-2110404640"/>
+        <c:axId val="-2110408384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2061243840"/>
+        <c:axId val="-2110404640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,7 +2538,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061136112"/>
+        <c:crossAx val="-2110408384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2539,7 +2546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061136112"/>
+        <c:axId val="-2110408384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2596,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061243840"/>
+        <c:crossAx val="-2110404640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2821,11 +2828,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2130794368"/>
-        <c:axId val="-2130827696"/>
+        <c:axId val="-2112488176"/>
+        <c:axId val="-2112491856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2130794368"/>
+        <c:axId val="-2112488176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +2875,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130827696"/>
+        <c:crossAx val="-2112491856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2876,7 +2883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130827696"/>
+        <c:axId val="-2112491856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +2934,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130794368"/>
+        <c:crossAx val="-2112488176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,11 +3124,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2061099744"/>
-        <c:axId val="-2096709536"/>
+        <c:axId val="-2112523632"/>
+        <c:axId val="-2112527312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2061099744"/>
+        <c:axId val="-2112523632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3164,7 +3171,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096709536"/>
+        <c:crossAx val="-2112527312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3172,7 +3179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096709536"/>
+        <c:axId val="-2112527312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3230,602 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061099744"/>
+        <c:crossAx val="-2112523632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reporte Mensual Segundo Año'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ingresos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reporte Mensual Segundo Año'!$B$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reporte Mensual Segundo Año'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2070342208"/>
+        <c:axId val="-2070768288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2070342208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2070768288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2070768288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="200.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2070342208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="200.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reporte Mensual Segundo Año'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Egresos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reporte Mensual Segundo Año'!$B$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reporte Mensual Segundo Año'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2097555312"/>
+        <c:axId val="-2066113728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2097555312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2066113728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2066113728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="200.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097555312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3512,6 +4114,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6170,6 +6852,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6549,7 +8263,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6566,7 +8280,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47A410DA-A33D-4A07-9A21-62747AA3CF8F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A410DA-A33D-4A07-9A21-62747AA3CF8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6593,13 +8307,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302750" cy="6080125"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD43E180-1B68-432D-AA0E-AA69D4E43879}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD43E180-1B68-432D-AA0E-AA69D4E43879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6626,13 +8340,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302750" cy="6080125"/>
+    <xdr:ext cx="8676640" cy="6289040"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A34D487-923E-4EDE-81B7-48300A01A3EF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A34D487-923E-4EDE-81B7-48300A01A3EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6742,6 +8456,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7063,15 +8842,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
@@ -7111,7 +8890,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -7120,7 +8899,7 @@
       <c r="C6" s="6">
         <v>1000</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -7131,14 +8910,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>250</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
@@ -7147,7 +8926,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -7156,7 +8935,7 @@
       <c r="C8" s="8">
         <v>1000</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="20" t="s">
         <v>14</v>
       </c>
@@ -7165,14 +8944,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="7">
         <v>500</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -7183,8 +8962,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>34</v>
+      <c r="A10" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>2</v>
@@ -7192,7 +8971,7 @@
       <c r="C10" s="8">
         <v>1000</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="20" t="s">
         <v>13</v>
       </c>
@@ -7201,15 +8980,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="7">
         <v>500</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>34</v>
+      <c r="E11" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>12</v>
@@ -7219,7 +8998,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -7228,7 +9007,7 @@
       <c r="C12" s="8">
         <v>1000</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -7237,14 +9016,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="7">
         <v>500</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="20" t="s">
         <v>14</v>
       </c>
@@ -7253,8 +9032,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>27</v>
+      <c r="A14" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>2</v>
@@ -7262,25 +9041,25 @@
       <c r="C14" s="8">
         <v>1000</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="13">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7">
         <v>700</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="20" t="s">
         <v>13</v>
       </c>
@@ -7289,8 +9068,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>35</v>
+      <c r="A16" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>2</v>
@@ -7298,25 +9077,25 @@
       <c r="C16" s="8">
         <v>1000</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>27</v>
+      <c r="E16" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="13">
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="7">
         <v>700</v>
       </c>
-      <c r="E17" s="32"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="20" t="s">
         <v>13</v>
       </c>
@@ -7325,18 +9104,18 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="29" t="s">
-        <v>35</v>
+      <c r="E18" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="13">
         <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="29"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="20" t="s">
         <v>13</v>
       </c>
@@ -7346,12 +9125,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -7359,6 +9132,12 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7367,25 +9146,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7404,22 +9183,22 @@
         <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
@@ -7569,7 +9348,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -7629,7 +9408,7 @@
     </row>
     <row r="12" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -7703,7 +9482,7 @@
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
@@ -7755,7 +9534,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -7820,14 +9599,596 @@
       <c r="Q27" s="28"/>
       <c r="R27" s="28"/>
     </row>
+    <row r="28" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B28:H32"/>
     <mergeCell ref="B24:H26"/>
     <mergeCell ref="J20:R23"/>
     <mergeCell ref="B8:H9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J3:R9"/>
     <mergeCell ref="B12:H19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Reporte Mensual Primer Año'!B4:G4</xm:f>
+              <xm:sqref>B21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Reporte Mensual Primer Año'!B5:G5</xm:f>
+              <xm:sqref>B22</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="25">
+        <f>SUM(C6:C9)</f>
+        <v>2800</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="25">
+        <f>SUM(G6:G10)</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="13">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1200</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="13">
+        <v>300</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1400</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="13">
+        <v>200</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13">
+        <v>300</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="13">
+        <v>200</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1200</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13">
+        <v>500</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="33"/>
+      <c r="F18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10">
+        <f>SUM('Segundo Año'!C6:C7)</f>
+        <v>1300</v>
+      </c>
+      <c r="C4" s="10">
+        <f>SUM('Segundo Año'!C8:C9)</f>
+        <v>1500</v>
+      </c>
+      <c r="D4" s="10">
+        <f>SUM('Segundo Año'!C10:C11)</f>
+        <v>1600</v>
+      </c>
+      <c r="E4" s="10">
+        <f>SUM('Segundo Año'!C12:C13)</f>
+        <v>1400</v>
+      </c>
+      <c r="F4" s="10">
+        <f>SUM('Segundo Año'!C14:C15)</f>
+        <v>1400</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM('Segundo Año'!C16:D17)</f>
+        <v>1700</v>
+      </c>
+      <c r="H4" s="26">
+        <f>SUM(B4:G4)</f>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11">
+        <f>SUM('Segundo Año'!G6:G8)</f>
+        <v>600</v>
+      </c>
+      <c r="C5" s="11">
+        <f>SUM('Segundo Año'!G9:G10)</f>
+        <v>500</v>
+      </c>
+      <c r="D5" s="11">
+        <f>SUM('Segundo Año'!G11:G12)</f>
+        <v>400</v>
+      </c>
+      <c r="E5" s="11">
+        <f>SUM('Segundo Año'!G13:G14)</f>
+        <v>600</v>
+      </c>
+      <c r="F5" s="11">
+        <f>SUM('Segundo Año'!G15:G16)</f>
+        <v>250</v>
+      </c>
+      <c r="G5" s="11">
+        <f>SUM('Segundo Año'!G17:G18)</f>
+        <v>700</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" ref="H5:H6" si="0">SUM(B5:G5)</f>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="14">
+        <f>B4-B5</f>
+        <v>700</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" ref="C6:G6" si="1">C4-C5</f>
+        <v>1000</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="1"/>
+        <v>1150</v>
+      </c>
+      <c r="G6" s="14">
+        <f>G4-G5</f>
+        <v>1000</v>
+      </c>
+      <c r="H6" s="26">
+        <f>SUM(B6:G6)</f>
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7845,8 +10206,8 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Reporte Mensual Primer Año'!B5:G5</xm:f>
-              <xm:sqref>B22</xm:sqref>
+              <xm:f>'Reporte Mensual Segundo Año'!B5:G5</xm:f>
+              <xm:sqref>I5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7861,349 +10222,14 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Reporte Mensual Primer Año'!B4:G4</xm:f>
-              <xm:sqref>B21</xm:sqref>
+              <xm:f>'Reporte Mensual Segundo Año'!B4:G4</xm:f>
+              <xm:sqref>I4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="25">
-        <f>SUM(C6:C9)</f>
-        <v>2800</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="25">
-        <f>SUM(G6:G10)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="13">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1200</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="13">
-        <v>300</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="12">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10">
-        <f>SUM('Segundo Año'!C6:C7)</f>
-        <v>1300</v>
-      </c>
-      <c r="C4" s="10">
-        <f>SUM('Segundo Año'!C8:C9)</f>
-        <v>1500</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
-        <f>SUM(B4:G4)</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11">
-        <f>SUM('Segundo Año'!G6:G8)</f>
-        <v>600</v>
-      </c>
-      <c r="C5" s="11">
-        <f>SUM('Segundo Año'!G9:G10)</f>
-        <v>400</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="26">
-        <f t="shared" ref="H5:H6" si="0">SUM(B5:G5)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="14">
-        <f>B4-B5</f>
-        <v>700</v>
-      </c>
-      <c r="C6" s="14">
-        <f t="shared" ref="C6:G6" si="1">C4-C5</f>
-        <v>1100</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="26">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8218,16 +10244,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -8240,25 +10266,25 @@
     </row>
     <row r="3" spans="1:8" ht="37" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <f>'Primer Año'!C3+'Segundo Año'!C3</f>
         <v>11950</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1">
         <f>'Primer Año'!G3+'Segundo Año'!G3</f>
-        <v>4020</v>
+        <v>4120</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1">
         <f>B3-E3</f>
-        <v>7930</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" thickTop="1" x14ac:dyDescent="0.25"/>
